--- a/biology/Zoologie/Cephalotes_pavonii/Cephalotes_pavonii.xlsx
+++ b/biology/Zoologie/Cephalotes_pavonii/Cephalotes_pavonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes pavonii est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes pavonii est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est trouvée de façon endémique en Amérique du Sud, depuis la Colombie au nord jusqu'à l'état du Parana et au Paraguay au sud de son aire naturelle[3]. Elle est également présente sur la côte est en Guyane française, au Suriname et dans le Guyana.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est trouvée de façon endémique en Amérique du Sud, depuis la Colombie au nord jusqu'à l'état du Parana et au Paraguay au sud de son aire naturelle. Elle est également présente sur la côte est en Guyane française, au Suriname et dans le Guyana.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste français Pierre-André Latreille, en 1809.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
